--- a/ZombaDisease1/ZombaCholera.xlsx
+++ b/ZombaDisease1/ZombaCholera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\ChilwaBasin\ZombaDisease1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6F7A74-4FAF-405D-AB0E-3C8BFAD097A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53C5A0A-FDA3-447D-8598-347F54670A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{CF86727E-EBAC-4FB3-9931-F75AC58A23DC}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2550,7 +2550,9 @@
       <c r="B62" s="5">
         <v>80.367142857142895</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="6">
+        <v>179.7</v>
+      </c>
       <c r="D62" s="6">
         <v>21.23</v>
       </c>
